--- a/SPPSApi/Doc/Template/FS1301_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS1301_Template.xlsx
@@ -11,38 +11,53 @@
     <sheet name="导入说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
-  <si>
-    <t>OE=SP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+  <si>
+    <t>现场作业权限管理导入实例：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>维护区分</t>
+    <t>H2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⭕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>张三2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业解锁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>包装工厂</t>
@@ -61,31 +76,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>现场出荷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场入荷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场包装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业</t>
+    <t>现场入荷作业</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解锁</t>
+    <t>现场入荷解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>现场作业权限管理导入实例：</t>
+    <t>现场检查作业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场检查解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场包装作业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场包装解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场出荷作业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场出荷解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,17 +150,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +176,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,30 +212,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -241,14 +282,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>603249</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,8 +298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2082800"/>
-          <a:ext cx="8388349" cy="2838450"/>
+          <a:off x="0" y="1333500"/>
+          <a:ext cx="9340849" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -334,7 +375,7 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>新增（以上绿色数据）</a:t>
+            <a:t>新增（以上红色数据）</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050">
             <a:solidFill>
@@ -364,7 +405,7 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>第一列操作类型选择</a:t>
+            <a:t>需要保证</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
@@ -388,7 +429,7 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>新增</a:t>
+            <a:t>包装工场、员工编号</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
@@ -410,54 +451,248 @@
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>，需要保证</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
+            <a:t>按照数据格式录入，不能为空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>修改（以上蓝色数据）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>   a.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>需要保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>包装工场、品番、收货方、供应商代码</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>包装工场、员工编号，员工姓名，用户角色</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="F79646">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>不能更改，仅允许修改作业或解锁的下拉选项</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>按照数据格式录入，不能为空</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
               <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1050" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -499,23 +734,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="导入说明"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -820,77 +1038,45 @@
     <col min="5" max="12" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -898,9 +1084,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet3!$B$2:$B$4</xm:f>
+            <xm:f>Sheet3!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K1048576</xm:sqref>
+          <xm:sqref>E2:L1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -910,201 +1096,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="4" max="5" width="11.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="12" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1113,41 +1352,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
